--- a/ListOfMeasures.xlsx
+++ b/ListOfMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E7510-B40A-43B1-B2E6-51F38349CEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE424EFF-E80E-4C90-A7D7-F5FF5E848163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,12 +230,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -245,27 +266,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,8 +612,8 @@
   </sheetPr>
   <dimension ref="A2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,150 +632,150 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="O6" s="10" t="s">
+      <c r="M6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="15" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="13" t="s">
@@ -790,18 +792,18 @@
       <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
@@ -835,83 +837,72 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="G28" s="16" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="G28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="L28" s="16" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="O28" s="16" t="s">
+      <c r="M28" s="5"/>
+      <c r="O28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="16"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="G31" s="16" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="L31" s="16" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="L31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="O31" s="16" t="s">
+      <c r="M31" s="5"/>
+      <c r="O31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="16"/>
+      <c r="P31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B27:E27"/>
+  <mergeCells count="28">
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:R6"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="C15:Q15"/>
@@ -922,18 +913,21 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ListOfMeasures.xlsx
+++ b/ListOfMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE424EFF-E80E-4C90-A7D7-F5FF5E848163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72DCF7-CAFA-4B96-BBEB-7F5C9918730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,7 +230,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,32 +256,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,7 +610,7 @@
   <dimension ref="A2:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -632,178 +629,178 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="O6" s="11" t="s">
+      <c r="M6" s="10"/>
+      <c r="O6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="15" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="19" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13" t="s">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13" t="s">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="13"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="1:18" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
@@ -837,72 +834,71 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="G28" s="18" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="L28" s="5" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="L28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="O28" s="5" t="s">
+      <c r="M28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="5"/>
+      <c r="P28" s="6"/>
     </row>
     <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="G31" s="18" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="L31" s="5" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="L31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="O31" s="5" t="s">
+      <c r="M31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="5"/>
+      <c r="P31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
+  <mergeCells count="24">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="C15:Q15"/>
@@ -918,14 +914,11 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/ListOfMeasures.xlsx
+++ b/ListOfMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72DCF7-CAFA-4B96-BBEB-7F5C9918730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2372C13-9F9D-40A8-88F7-592E58E9E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -95,18 +95,6 @@
   </si>
   <si>
     <t>После</t>
-  </si>
-  <si>
-    <t>*Приложение №1 Приказа Минтруда России от 29.10.2021 №776н «Об утверждении Примерного положения о системе управления охраной труда»</t>
-  </si>
-  <si>
-    <t>Члены комиссии по проведению оценки профессиональных рисков:</t>
-  </si>
-  <si>
-    <t>(Должность)</t>
-  </si>
-  <si>
-    <t>(Ф.И.О)</t>
   </si>
 </sst>
 </file>
@@ -232,6 +220,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -240,30 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +598,7 @@
   <dimension ref="A2:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -629,178 +617,178 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="O6" s="10" t="s">
+      <c r="M6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="15" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15" t="s">
+      <c r="N19" s="14"/>
+      <c r="O19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15" t="s">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="15"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
@@ -821,17 +809,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:18" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="22" spans="1:18" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="4"/>
     </row>
     <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
@@ -843,24 +825,16 @@
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="L28" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="O28" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
     <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -873,28 +847,28 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="L31" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="O31" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:R6"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -911,14 +885,6 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/ListOfMeasures.xlsx
+++ b/ListOfMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2372C13-9F9D-40A8-88F7-592E58E9E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9AE74-9D5F-4D76-AA79-CE25985F5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,15 +49,9 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>№ опасности*</t>
-  </si>
-  <si>
     <t>Опасности</t>
   </si>
   <si>
-    <t>№ опасного события*</t>
-  </si>
-  <si>
     <t>Опасное событие</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>После</t>
+  </si>
+  <si>
+    <t>№ опасности</t>
+  </si>
+  <si>
+    <t>№ опасного события</t>
   </si>
 </sst>
 </file>
@@ -226,15 +226,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,15 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +597,8 @@
   </sheetPr>
   <dimension ref="A2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -617,170 +617,170 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="O6" s="11" t="s">
+      <c r="M6" s="12"/>
+      <c r="O6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="15" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="N19" s="17"/>
+      <c r="O19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -790,22 +790,22 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -861,14 +861,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -885,6 +877,14 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/ListOfMeasures.xlsx
+++ b/ListOfMeasures.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9AE74-9D5F-4D76-AA79-CE25985F5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCB036-B39D-4C23-AB83-276089FECC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -64,9 +75,6 @@
     <t>Номер и (или) наименование рабочего места</t>
   </si>
   <si>
-    <t>Меры управления профессиональными рисками (технические, организационные, СИЗ и пр.)</t>
-  </si>
-  <si>
     <t>Периодич-  ность</t>
   </si>
   <si>
@@ -95,13 +103,22 @@
   </si>
   <si>
     <t>№ опасного события</t>
+  </si>
+  <si>
+    <t>Существующие меры управления профессиональными рисками (технические, организационные, СИЗ и пр.)</t>
+  </si>
+  <si>
+    <t>Дополнительные меры управления профессиональными рисками (технические, организационные, СИЗ и пр.)</t>
+  </si>
+  <si>
+    <t>(должность)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -127,12 +144,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,11 +211,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,11 +235,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -227,7 +256,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -237,12 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,296 +618,379 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:R31"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
-    <col min="13" max="18" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="19" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L2" s="9" t="s">
+    <row r="1" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="10" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="12" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="O6" s="12" t="s">
+      <c r="N4" s="17"/>
+      <c r="P4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="12" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="12" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="19" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:19" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="L11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="N11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17" t="s">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17" t="s">
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="17"/>
-    </row>
-    <row r="20" spans="1:18" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="P12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:18" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="2:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="2:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
+  <mergeCells count="25">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="C8:R8"/>
+    <mergeCell ref="C9:R9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
